--- a/项目和小组工作进度及个人工作量.xlsx
+++ b/项目和小组工作进度及个人工作量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212D6A2-A600-4FA4-BAF0-5FA1D034843D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BEDAF-57E3-42F0-B46A-FAB69971F6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACB1E189-A774-4E59-A14D-762398A9C653}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>活动编号描述</t>
   </si>
@@ -214,6 +214,66 @@
   </si>
   <si>
     <t>确定主题内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举组长，确定课题            可行性分析报告---所建议的系统、可行性分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举组长，确定课题            可行性分析报告---对现有系统的分析、所建议的系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举组长，确定课题            可行性分析报告---项目概述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举组长，确定课题            可行性分析报告---引言、项目概述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举组长，确定课题            可行性分析报告---社会因素方面的可行性、可行性结论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS--CSCI能力需求、CSCI外部接口需求、软件子系统功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化风险管理、做出应预案，SRS--算法说明、各项需求、尚未解决的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS--CSCI内部接口需求、内部数据需求、计算机资源需求、CSCI环境需求、保密性需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS--软件质量因素、数据、操作、故障处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS--范围、引用文件、需求、运行环境、约束条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分工协作练习用静态建模(如UML）等工具对所负责的项目建模，用模型model与用户沟通。分工协作，用上面的工作补充完善SRS和所负责的项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读《掌握需求过程(第3版) 》，对比其附录A和国标SRS的模板，分析有什么不同和特点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读《掌握需求过程(第3版) 》，对比其附录A和国标SRS的模板，分析有什么不同和特点。补充完善SRS和所负责的项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新课程内容继续完善自己项目的SRS，学习华为敏捷DevOps开发方法理论课件， 进行华为凤凰商城项目实验三，学习敏捷开发中如何进行持续测试与反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新课程内容完善自己项目的SRS，学习华为敏捷DevOps开发方法理论课件， 进行华为凤凰商城项目实验三，学习敏捷开发中如何进行持续测试与反馈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +315,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -298,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,41 +375,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,35 +733,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479B1004-BE5A-4B82-AE67-ED142625793C}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -741,48 +819,60 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="14"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -790,65 +880,65 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="14"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="14"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -856,331 +946,366 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="11" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="12" t="s">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:42" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:42" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-    </row>
-    <row r="39" spans="1:42" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+    </row>
+    <row r="39" spans="1:42" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-    </row>
-    <row r="40" spans="1:42" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+    </row>
+    <row r="40" spans="1:42" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
-    </row>
-    <row r="41" spans="1:42" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+    </row>
+    <row r="41" spans="1:42" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="7"/>
-    </row>
-    <row r="42" spans="1:42" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+    </row>
+    <row r="42" spans="1:42" ht="150.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/项目和小组工作进度及个人工作量.xlsx
+++ b/项目和小组工作进度及个人工作量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BEDAF-57E3-42F0-B46A-FAB69971F6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7665A70-DD59-4A94-B445-CA97ABE50E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACB1E189-A774-4E59-A14D-762398A9C653}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>活动编号描述</t>
   </si>
@@ -274,6 +274,17 @@
   </si>
   <si>
     <t>根据最新课程内容完善自己项目的SRS，学习华为敏捷DevOps开发方法理论课件， 进行华为凤凰商城项目实验三，学习敏捷开发中如何进行持续测试与反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分工协作设计SAD初稿、学习软件体系结构并写出学习报告（笔记）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分工协作，学习、检索研究经典软件体系结构案例、完善项目SAD</t>
+  </si>
+  <si>
+    <t>分工协作，学习、检索研究经典软件体系结构案例、完善项目SAD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,6 +411,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,12 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479B1004-BE5A-4B82-AE67-ED142625793C}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,24 +760,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -819,7 +830,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -830,12 +841,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -847,61 +858,77 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I11" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="18" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -909,36 +936,36 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -946,20 +973,20 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1013,24 +1040,24 @@
       <c r="Z33" s="10"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:42" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1045,14 +1072,18 @@
       <c r="E38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -1091,7 +1122,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -1100,14 +1131,18 @@
       <c r="E39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -1146,7 +1181,7 @@
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -1158,11 +1193,15 @@
       <c r="F40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -1201,7 +1240,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -1213,11 +1252,15 @@
       <c r="F41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -1256,7 +1299,7 @@
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -1268,11 +1311,15 @@
       <c r="F42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
